--- a/테스트/400-SW1-001-단위체크리스트_v1.0.xlsx
+++ b/테스트/400-SW1-001-단위체크리스트_v1.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edu_git\테스트\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="675" windowWidth="12375" windowHeight="11280" activeTab="2"/>
   </bookViews>
@@ -32,12 +37,12 @@
     <definedName name="통합TestTracking01">#REF!</definedName>
     <definedName name="프로젝트종합">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -377,6 +382,10 @@
   </si>
   <si>
     <t>영어만 입력 되는지 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어만 입력 되는지 확인2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,14 +432,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -691,18 +692,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,122 +725,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -855,6 +853,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1042,7 +1043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,7 +1078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1294,146 +1295,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="9" customWidth="1"/>
-    <col min="4" max="5" width="17.625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="17.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="8" customWidth="1"/>
+    <col min="4" max="5" width="17.625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>41557</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1464,309 +1465,309 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="7.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>41557</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1791,15 +1792,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
@@ -1809,7 +1810,7 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1826,10 +1827,10 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1841,10 +1842,10 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1856,10 +1857,10 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1871,10 +1872,10 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1886,10 +1887,10 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1901,10 +1902,10 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1916,10 +1917,10 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1931,10 +1932,10 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1946,10 +1947,10 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1961,7 +1962,7 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1976,10 +1977,10 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="36" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1991,10 +1992,10 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2006,10 +2007,10 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2021,10 +2022,10 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="36" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2036,10 +2037,10 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="36" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2051,10 +2052,10 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2066,10 +2067,10 @@
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2081,10 +2082,10 @@
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2096,10 +2097,10 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2111,10 +2112,10 @@
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="36" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2126,8 +2127,12 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2142,7 @@
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3" t="s">
         <v>0</v>
@@ -2148,7 +2153,7 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="6"/>
       <c r="D24" s="3" t="s">
         <v>0</v>
@@ -2159,7 +2164,7 @@
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="6"/>
       <c r="D25" s="3" t="s">
         <v>0</v>
@@ -2170,7 +2175,7 @@
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="6"/>
       <c r="D26" s="3" t="s">
         <v>0</v>
